--- a/biology/Médecine/Hôpitaux_universitaires_d'Assiout/Hôpitaux_universitaires_d'Assiout.xlsx
+++ b/biology/Médecine/Hôpitaux_universitaires_d'Assiout/Hôpitaux_universitaires_d'Assiout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_d%27Assiout</t>
+          <t>Hôpitaux_universitaires_d'Assiout</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les hôpitaux universitaires d'Assiout sont considérés comme parmi les plus grands hôpitaux universitaires et thérapeutiques au niveau de l'Égypte, car ils ont été inaugurés par le président Hosni Moubarak en 1987. Le nombre total d'hôpitaux universitaires est d'environ trois mille lits[pas clair], dont 92 % de lits gratuits, avec 8 % sont des lits de soins spéciaux et économiques et des contrats avec des agences gouvernementales et non gouvernementales. Le produit de celui-ci[pas clair] est affecté aux dépenses du service gratuit et des patients qui en sont incapables[1].
+Les hôpitaux universitaires d'Assiout sont considérés comme parmi les plus grands hôpitaux universitaires et thérapeutiques au niveau de l'Égypte, car ils ont été inaugurés par le président Hosni Moubarak en 1987. Le nombre total d'hôpitaux universitaires est d'environ trois mille lits[pas clair], dont 92 % de lits gratuits, avec 8 % sont des lits de soins spéciaux et économiques et des contrats avec des agences gouvernementales et non gouvernementales. Le produit de celui-ci[pas clair] est affecté aux dépenses du service gratuit et des patients qui en sont incapables.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_d%27Assiout</t>
+          <t>Hôpitaux_universitaires_d'Assiout</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le principal hôpital universitaire
 Hôpital universitaire pour enfants
